--- a/docs/Sprint_Planning_Project 5_Group 1_Automated Gardening System_version2.1.xlsx
+++ b/docs/Sprint_Planning_Project 5_Group 1_Automated Gardening System_version2.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b80ac27fe9073789/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevOps Grp Test\DevOps\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA1AE43-9F0C-44BA-BCAE-CDCAE08A05B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C96E27-35F8-4E0F-BA9F-7CBACA5EC96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="5565" windowWidth="38700" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprints" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="152">
   <si>
     <t>Sprint</t>
   </si>
@@ -541,10 +541,10 @@
     <t>version2.0</t>
   </si>
   <si>
-    <t>Updates on Sprint_Planning with product backlog ID-1 to ID-27 done</t>
-  </si>
-  <si>
     <t>version2.1</t>
+  </si>
+  <si>
+    <t>Updates on Sprint_Planning with product backlog ID-1 to ID-23 and ID-25 done and extension of Sprint 3 End Date to 14 August 2023 from 13 August 2023</t>
   </si>
 </sst>
 </file>
@@ -1073,10 +1073,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1342,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,21 +1553,21 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D14" s="59" t="s">
         <v>130</v>
       </c>
       <c r="E14" s="12">
-        <v>45150</v>
+        <v>45151</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1653,8 +1649,8 @@
         <v>45138</v>
       </c>
       <c r="F19" s="12">
-        <f>E19+13</f>
-        <v>45151</v>
+        <f>E19+14</f>
+        <v>45152</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>7</v>
@@ -1842,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2511,11 +2507,9 @@
       <c r="F27" s="6">
         <v>3</v>
       </c>
-      <c r="G27" s="6">
-        <v>1</v>
-      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="18" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>29</v>
@@ -2563,11 +2557,9 @@
       <c r="F29" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="G29" s="20"/>
       <c r="H29" s="20" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I29" s="20" t="s">
         <v>29</v>
@@ -2589,11 +2581,9 @@
       <c r="F30" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="18" t="s">
-        <v>49</v>
-      </c>
+      <c r="G30" s="18"/>
       <c r="H30" s="18" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I30" s="18" t="s">
         <v>29</v>
@@ -2839,20 +2829,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c47168d0-be34-42b2-a9a2-79b9ac9e352a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c47168d0-be34-42b2-a9a2-79b9ac9e352a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3039,14 +3029,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45A76368-52EE-4CED-9A8C-007D3E8E358A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B031464-E075-40CE-877F-DBE6219E7B4D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3059,6 +3041,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="c47168d0-be34-42b2-a9a2-79b9ac9e352a"/>
     <ds:schemaRef ds:uri="7bcc944a-fec8-4ab8-beaa-a3ce9d28f6a6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45A76368-52EE-4CED-9A8C-007D3E8E358A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
